--- a/InputFiles/Detailed Connection File.xlsx
+++ b/InputFiles/Detailed Connection File.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokul.Reghunath\Documents\Work\POC Snowflake\Nike_QueryReconcilator\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokul.Reghunath\Documents\Work\POC Snowflake\Cloned_Repo\Nike_QueryReconcilator\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CCACCE-4758-408F-BE15-B5693CC545EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E03B965-9DF7-4981-B0A2-5A473526EC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{CE72DAE6-8292-4BDA-9451-49852FE94ECF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>SQL_DESCRIPTION</t>
   </si>
@@ -56,18 +56,6 @@
     <t>Snowflake</t>
   </si>
   <si>
-    <t>SQL Server</t>
-  </si>
-  <si>
-    <t>Normailized-Total Number of Records-SQLSERVER.sql</t>
-  </si>
-  <si>
-    <t>Normalized-Count of ERP Vendor Name-SQLServer.sql</t>
-  </si>
-  <si>
-    <t>Normalized-Invoice Amount and Cumulative Percentage -SQL Server.sql</t>
-  </si>
-  <si>
     <t>Normailized-Total Number of Records-Snowflake.sql</t>
   </si>
   <si>
@@ -83,18 +71,6 @@
     <t>Normalized-Total Invoice Amount-snowflake.sql</t>
   </si>
   <si>
-    <t>Normalized-Spend and Cumulative Percentage by Raw ERP Vendor-SQL Server.sql</t>
-  </si>
-  <si>
-    <t>Normalized-Total Invoice Amount-SQL Server.sql</t>
-  </si>
-  <si>
-    <t>Snow_Dev</t>
-  </si>
-  <si>
-    <t>SQL_Dev</t>
-  </si>
-  <si>
     <t>GRAIN_COL_COUNT</t>
   </si>
   <si>
@@ -108,6 +84,12 @@
   </si>
   <si>
     <t>DATABASE</t>
+  </si>
+  <si>
+    <t>Snowflake_Conn1</t>
+  </si>
+  <si>
+    <t>Snowflake_Conn2</t>
   </si>
 </sst>
 </file>
@@ -458,13 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE4E6EB-F500-49DE-9491-C2BF4877D993}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="60" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.4140625" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
@@ -473,22 +457,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -496,10 +480,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -519,7 +503,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -533,16 +517,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -553,19 +537,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -573,56 +557,56 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -633,16 +617,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -653,154 +637,69 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
       </c>
       <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="43" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF45A6E641576E41ADFBF938D8C0C28F" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18ee96dfc0b4b4d1eb8c0ccba0109bab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a86250b5-0f4c-4a9f-9dcb-82ef542c08a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78397db3246627b1c26a51360c947519" ns2:_="">
     <xsd:import namespace="a86250b5-0f4c-4a9f-9dcb-82ef542c08a9"/>
@@ -932,22 +831,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6DE1A61-F6A5-4CED-8EF3-5C44D410B0FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6105B28B-3EB5-4905-921D-E0C9243D190C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48C7C40E-CE2D-40DC-92A1-8AE96BB32A41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -963,21 +864,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6105B28B-3EB5-4905-921D-E0C9243D190C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6DE1A61-F6A5-4CED-8EF3-5C44D410B0FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputFiles/Detailed Connection File.xlsx
+++ b/InputFiles/Detailed Connection File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokul.Reghunath\Documents\Work\POC Snowflake\Cloned_Repo\Nike_QueryReconcilator\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E03B965-9DF7-4981-B0A2-5A473526EC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52321BC-33D4-4022-9EE5-A908B5F0EF2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{CE72DAE6-8292-4BDA-9451-49852FE94ECF}"/>
   </bookViews>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE4E6EB-F500-49DE-9491-C2BF4877D993}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -675,31 +675,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF45A6E641576E41ADFBF938D8C0C28F" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18ee96dfc0b4b4d1eb8c0ccba0109bab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a86250b5-0f4c-4a9f-9dcb-82ef542c08a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78397db3246627b1c26a51360c947519" ns2:_="">
     <xsd:import namespace="a86250b5-0f4c-4a9f-9dcb-82ef542c08a9"/>
@@ -831,24 +816,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6DE1A61-F6A5-4CED-8EF3-5C44D410B0FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6105B28B-3EB5-4905-921D-E0C9243D190C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48C7C40E-CE2D-40DC-92A1-8AE96BB32A41}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -864,4 +847,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6105B28B-3EB5-4905-921D-E0C9243D190C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6DE1A61-F6A5-4CED-8EF3-5C44D410B0FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>